--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2423.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2423.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.033370833602502</v>
+        <v>1.250077247619629</v>
       </c>
       <c r="B1">
-        <v>2.092204367234592</v>
+        <v>1.586637377738953</v>
       </c>
       <c r="C1">
-        <v>9.006382693590876</v>
+        <v>3.706434488296509</v>
       </c>
       <c r="D1">
-        <v>2.051987635329681</v>
+        <v>3.382776021957397</v>
       </c>
       <c r="E1">
-        <v>0.9955834577652553</v>
+        <v>0.9840773940086365</v>
       </c>
     </row>
   </sheetData>
